--- a/Models/Model_5_min_por/ModelData.xlsx
+++ b/Models/Model_5_min_por/ModelData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="714" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="714" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Dir" sheetId="5" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Water_S2_BC" sheetId="13" r:id="rId12"/>
     <sheet name="Optimize" sheetId="14" r:id="rId13"/>
     <sheet name="Options" sheetId="15" r:id="rId14"/>
+    <sheet name="Well_Params" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="112">
   <si>
     <t>ROCK</t>
   </si>
@@ -350,6 +351,24 @@
   </si>
   <si>
     <t>multiplier</t>
+  </si>
+  <si>
+    <t>min_elev</t>
+  </si>
+  <si>
+    <t>max_elev</t>
+  </si>
+  <si>
+    <t>dz</t>
+  </si>
+  <si>
+    <t>well_diameter</t>
+  </si>
+  <si>
+    <t>roughness</t>
+  </si>
+  <si>
+    <t>inj_temp</t>
   </si>
 </sst>
 </file>
@@ -754,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,7 +896,7 @@
       </c>
       <c r="H4" s="4">
         <f>-L4*1000000000/(365.25*24*3600)</f>
-        <v>-23.300000543869999</v>
+        <v>-25.107736890000002</v>
       </c>
       <c r="I4" s="3">
         <v>-30</v>
@@ -890,7 +909,7 @@
       </c>
       <c r="L4" s="4">
         <f>SUM(L5:L7)</f>
-        <v>0.73529209716323185</v>
+        <v>0.792339917679864</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -916,7 +935,7 @@
       </c>
       <c r="H5" s="4">
         <f>L5*1000000000/(365.25*24*3600)</f>
-        <v>8.3829311228099996</v>
+        <v>9.0271486000000003</v>
       </c>
       <c r="I5" s="3">
         <v>0</v>
@@ -929,13 +948,13 @@
       </c>
       <c r="L5" s="4">
         <f>O5/1000000000*(365.25*24*3600)</f>
-        <v>0.26454518720118886</v>
+        <v>0.28487514465935998</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>8.3829311228099996</v>
+        <v>9.0271486000000003</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -958,7 +977,7 @@
       </c>
       <c r="H6" s="4">
         <f>L6*1000000000/(365.25*24*3600)</f>
-        <v>8.4491130472199991</v>
+        <v>9.0551068999999984</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
@@ -971,13 +990,13 @@
       </c>
       <c r="L6" s="4">
         <f t="shared" ref="L6:L7" si="0">O6/1000000000*(365.25*24*3600)</f>
-        <v>0.26663372989894984</v>
+        <v>0.28575744150743998</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>8.4491130472199991</v>
+        <v>9.0551069000000002</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1000,7 +1019,7 @@
       </c>
       <c r="H7" s="4">
         <f>L7*1000000000/(365.25*24*3600)</f>
-        <v>6.4679563738399999</v>
+        <v>7.0254813900000013</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
@@ -1013,13 +1032,13 @@
       </c>
       <c r="L7" s="4">
         <f t="shared" si="0"/>
-        <v>0.20411318006309317</v>
+        <v>0.22170733151306402</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>6.4679563738399999</v>
+        <v>7.0254813900000004</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1207,7 +1226,7 @@
       </c>
       <c r="H2">
         <f>CO2_S2_BC!H4</f>
-        <v>-23.300000543869999</v>
+        <v>-25.107736890000002</v>
       </c>
       <c r="I2">
         <f>CO2_S2_BC!I4</f>
@@ -1218,7 +1237,7 @@
       </c>
       <c r="L2" s="4">
         <f>CO2_S2_BC!L4</f>
-        <v>0.73529209716323185</v>
+        <v>0.792339917679864</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1241,7 +1260,7 @@
       </c>
       <c r="H3">
         <f>CO2_S2_BC!H5</f>
-        <v>8.3829311228099996</v>
+        <v>9.0271486000000003</v>
       </c>
       <c r="I3">
         <f>CO2_S2_BC!I5</f>
@@ -1252,7 +1271,7 @@
       </c>
       <c r="L3" s="4">
         <f>CO2_S2_BC!L5</f>
-        <v>0.26454518720118886</v>
+        <v>0.28487514465935998</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1275,7 +1294,7 @@
       </c>
       <c r="H4">
         <f>CO2_S2_BC!H6</f>
-        <v>8.4491130472199991</v>
+        <v>9.0551068999999984</v>
       </c>
       <c r="I4">
         <f>CO2_S2_BC!I6</f>
@@ -1286,7 +1305,7 @@
       </c>
       <c r="L4" s="4">
         <f>CO2_S2_BC!L6</f>
-        <v>0.26663372989894984</v>
+        <v>0.28575744150743998</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1309,7 +1328,7 @@
       </c>
       <c r="H5">
         <f>CO2_S2_BC!H7</f>
-        <v>6.4679563738399999</v>
+        <v>7.0254813900000013</v>
       </c>
       <c r="I5">
         <f>CO2_S2_BC!I7</f>
@@ -1320,7 +1339,7 @@
       </c>
       <c r="L5" s="4">
         <f>CO2_S2_BC!L7</f>
-        <v>0.20411318006309317</v>
+        <v>0.22170733151306402</v>
       </c>
     </row>
   </sheetData>
@@ -1444,6 +1463,77 @@
       </c>
       <c r="B4">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5.5000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2888,7 +2978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
